--- a/data/donnees_AGRIMOTORS_2023-07-21.xlsx
+++ b/data/donnees_AGRIMOTORS_2023-07-21.xlsx
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-20547172</v>
+        <v>-22164922</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>6249201.2</v>
@@ -2877,7 +2877,7 @@
         <v>7203931.2</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-7094039.6</v>
+        <v>-8711789.6</v>
       </c>
     </row>
     <row r="70">
